--- a/Course 2/Monthly Sales.xlsx
+++ b/Course 2/Monthly Sales.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rittiv\Documents\GitHub\Google-Data-Analytics\Course 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E0282-9D49-4139-A1DE-5CE5DCAE5071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Monthly sales</t>
   </si>
@@ -29,15 +38,21 @@
   </si>
   <si>
     <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Average Sales</t>
+  </si>
+  <si>
+    <t>June to July Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -45,36 +60,50 @@
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,11 +111,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -100,55 +135,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -338,20 +412,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,70 +449,107 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="3">
-        <v>54687.0</v>
+        <v>54687</v>
       </c>
       <c r="C2" s="3">
-        <v>79013.0</v>
+        <v>79013</v>
       </c>
       <c r="D2" s="3">
-        <v>4002.0</v>
+        <v>47002</v>
       </c>
       <c r="E2" s="3">
-        <v>163330.0</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+        <v>163330</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2+C2+D2+E2</f>
+        <v>344032</v>
+      </c>
+      <c r="G2" s="9">
+        <f>(B2+C2+D2+E2)/4</f>
+        <v>86008</v>
+      </c>
+      <c r="H2" s="10">
+        <f>(E2-D2)/D2</f>
+        <v>2.4749585124037274</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="3">
-        <v>56980.0</v>
+        <v>56980</v>
       </c>
       <c r="C3" s="3">
-        <v>84023.0</v>
+        <v>84023</v>
       </c>
       <c r="D3" s="3">
-        <v>59733.0</v>
+        <v>59733</v>
       </c>
       <c r="E3" s="3">
-        <v>158234.0</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
+        <v>158234</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3+C3+D3+E3</f>
+        <v>358970</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G4" si="0">(B3+C3+D3+E3)/4</f>
+        <v>89742.5</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H4" si="1">(E3-D3)/D3</f>
+        <v>1.6490214789145028</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B4" s="3">
-        <v>61075.0</v>
+        <v>61075</v>
       </c>
       <c r="C4" s="3">
-        <v>84145.0</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>84145</v>
+      </c>
+      <c r="D4" s="4">
+        <v>75866</v>
+      </c>
       <c r="E4" s="3">
-        <v>167789.0</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
+        <v>167789</v>
+      </c>
+      <c r="F4" s="7">
+        <f>B4+C4+D4+E4</f>
+        <v>388875</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>97218.75</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2116494872538424</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="G10" s="9"/>
+    <row r="10" spans="1:8">
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>